--- a/src/make_cv/files/Scholarship/current student data.xlsx
+++ b/src/make_cv/files/Scholarship/current student data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Scholarship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F93F921-5568-C044-91F7-9315AED236C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AABC3-2C2D-264A-9EF8-FB6C3F494C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="3040" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Notes" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Student Name</t>
   </si>
@@ -31,16 +32,19 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>ME-MS</t>
-  </si>
-  <si>
-    <t>Schmoe, Joe</t>
-  </si>
-  <si>
-    <t>Doe, John</t>
-  </si>
-  <si>
-    <t>ME-PhD</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Any format is fine, probably last, first is best</t>
+  </si>
+  <si>
+    <t>Typically MS or PhD</t>
+  </si>
+  <si>
+    <t>Start date in program</t>
   </si>
 </sst>
 </file>
@@ -48,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,10 +109,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,16 +414,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01FBDE7-C57A-E141-8445-55CD19C70F60}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -434,28 +491,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43861</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/make_cv/files/Scholarship/current student data.xlsx
+++ b/src/make_cv/files/Scholarship/current student data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Scholarship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AABC3-2C2D-264A-9EF8-FB6C3F494C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA166129-062B-624F-AD3F-068CFA317F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="3040" windowWidth="25800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="3040" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Student Name</t>
   </si>
@@ -41,10 +41,16 @@
     <t>Any format is fine, probably last, first is best</t>
   </si>
   <si>
-    <t>Typically MS or PhD</t>
-  </si>
-  <si>
     <t>Start date in program</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>ME</t>
   </si>
 </sst>
 </file>
@@ -52,7 +58,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,10 +115,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01FBDE7-C57A-E141-8445-55CD19C70F60}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,17 +432,17 @@
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -444,20 +450,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -469,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -492,6 +504,24 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{62B17C01-85C7-A945-BAE0-E153D8B7F7EE}">
+      <formula1>1</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55FA3410-D774-A14A-AEA0-6BBF1B50825A}">
+          <x14:formula1>
+            <xm:f>Notes!$B$5:$D$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/make_cv/files/Scholarship/current student data.xlsx
+++ b/src/make_cv/files/Scholarship/current student data.xlsx
@@ -1,83 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Scholarship/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA166129-062B-624F-AD3F-068CFA317F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13440" yWindow="3040" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12600" yWindow="2580" windowWidth="25800" windowHeight="17300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="2" r:id="rId1"/>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Current Program</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>Any format is fine, probably last, first is best</t>
-  </si>
-  <si>
-    <t>Start date in program</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -111,28 +70,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,56 +438,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01FBDE7-C57A-E141-8445-55CD19C70F60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Any format is fine, probably last, first is best</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Current Program</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PhD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Start date in program</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -478,50 +520,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="3" customWidth="1"/>
+    <col width="17.6640625" customWidth="1" min="1" max="1"/>
+    <col width="18.5" customWidth="1" min="2" max="2"/>
+    <col width="22.6640625" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Student Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Current Program</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{62B17C01-85C7-A945-BAE0-E153D8B7F7EE}">
-      <formula1>1</formula1>
-      <formula2>73051</formula2>
+  <dataValidations count="2">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$B$5:$D$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="date" operator="between">
+      <formula1>"1930-01-01"</formula1>
+      <formula2>"2100-12-31"</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55FA3410-D774-A14A-AEA0-6BBF1B50825A}">
-          <x14:formula1>
-            <xm:f>Notes!$B$5:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>